--- a/medicine/Mort/Décès_en_1952/Décès_en_1952.xlsx
+++ b/medicine/Mort/Décès_en_1952/Décès_en_1952.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1952</t>
+          <t>Décès_en_1952</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1952</t>
+          <t>Décès_en_1952</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,16 +540,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Marcelle Ackein, peintre orientaliste française (° 1882).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Marcelle Ackein, peintre orientaliste française (° 1882).
 Émile Fernand-Dubois, sculpteur, graveur, et médailleur français (° 1869).
 Charles Léon Godeby, peintre français (° 26 janvier 1866).
 Labiba Hashim, journaliste et romancière libanaise (° 1882).
 Jean Lachaud, peintre, graveur, céramiste et décorateur français (° 27 décembre 1889).
 Rudolf Leberl, compositeur et enseignant tchèque (° 1884).
-Kimon Loghi, peintre roumain d'origine macédonienne (° 1873).
-Janvier
-2 janvier : Louis Valtat, peintre et graveur français (° 8 août 1869).
+Kimon Loghi, peintre roumain d'origine macédonienne (° 1873).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1952</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1952</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier : Louis Valtat, peintre et graveur français (° 8 août 1869).
 4 janvier :
 David Estoppey, peintre, dessinateur et lithographe suisse (° 14 septembre 1862).
 Constant Permeke, peintre et sculpteur belge (° 31 juillet 1886).
@@ -547,9 +598,43 @@
 14 janvier : Mohamed Belouizdad, premier responsable de l'Organisation Spéciale, branche militaire du Parti du peuple algérien (° 3 novembre 1924).
 20 janvier : Arthur Farwell, compositeur, pédagogue, lithographe, éditeur de musique et chef d'orchestre américain (° 23 mars 1872).
 21 janvier : Katie Sandwina, lutteuse et femme forte de cirque autrichienne (° 1884).
-25 janvier : Sveinn Björnsson, 1er président de la République d'Islande (° 27 janvier 1881).
-Février
-2 février : Édouard Henry-Baudot, peintre et graveur postimpressionniste français (° 18 mai 1871)
+25 janvier : Sveinn Björnsson, 1er président de la République d'Islande (° 27 janvier 1881).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1952</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1952</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 février : Édouard Henry-Baudot, peintre et graveur postimpressionniste français (° 18 mai 1871)
 6 février : George VI, roi du Royaume-Uni (° 14 décembre 1895).
 7 février : Jacques d'Otémar, peintre et illustrateur français (° 9 juillet 1881).
 11 février : Victor Lhuer, dessinateur, graveur et peintre français (° 9 septembre 1876).
@@ -563,9 +648,43 @@
 Vetese Guerino, accordéoniste français d'origine italienne (° 1er août 1895).
 Georges Le Serrec de Kervily, peintre symboliste ukrainien de naissance, d'origine française naturalisé américain (° 27 septembre 1883).
 25 février : Louis Bouquet, peintre, décorateur, fresquiste et graveur français (° 6 décembre 1885).
-29 février : Albert Clouard, peintre et poète français (° 3 avril 1866).
-Mars
-1er mars : Emil Walter, joueur et entraineur de football allemand (° 7 avril 1900).
+29 février : Albert Clouard, peintre et poète français (° 3 avril 1866).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1952</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1952</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Emil Walter, joueur et entraineur de football allemand (° 7 avril 1900).
 4 mars : Léonce de Joncières, peintre, aquarelliste, illustrateur et poète français (° 14 février 1871).
 5 mars : Vladimir Chtcherbatchiov, compositeur et pédagogue russe de l'ère soviétique (° 24 janvier 1889).
 10 mars : Emmanuel Poirier, peintre, graveur et illustrateur français (° 13 octobre 1898).
@@ -575,9 +694,43 @@
 24 mars : Paul Pierné, compositeur et organiste français (° 30 juin 1874).
 25 mars : Émile Malespine, médecin, psychiatre, écrivain, peintre, théoricien, éditeur, poète, homme de théâtre, de cinéma et de radio et concepteur de mobilier français (° 3 juillet 1892).
 28 mars : Antonieta de Barros, journaliste brésilienne (° 11 juillet 1901).
-30 mars : Níkos Beloyánnis, chef de la résistance en Grèce pendant la Seconde Guerre mondiale et cadre dirigeant du Parti communiste grec (° 22 décembre 1915).
-Avril
-2 avril :
+30 mars : Níkos Beloyánnis, chef de la résistance en Grèce pendant la Seconde Guerre mondiale et cadre dirigeant du Parti communiste grec (° 22 décembre 1915).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1952</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1952</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 avril :
 Marcel Bernanose, peintre et graveur français (° 23 août 1884).
 Bernard Lyot, astronome français, inventeur du corographe (° 27 février 1897).
 3 avril :
@@ -590,9 +743,43 @@
 Ian Maclaren, acteur anglais (° 1er mai 1875).
 13 avril : Adolphe Cossard, peintre français (° 1er avril 1880).
 16 avril : François Alaux, peintre français (° 11 octobre 1878).
-21 avril : Leslie Banks, acteur britannique (° 8 juin 1890).
-Mai
-2 mai : Ilia Chatrov, militaire, musicien, chef d'orchestre et compositeur russe puis soviétique (° 1er avril 1879).
+21 avril : Leslie Banks, acteur britannique (° 8 juin 1890).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1952</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1952</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 mai : Ilia Chatrov, militaire, musicien, chef d'orchestre et compositeur russe puis soviétique (° 1er avril 1879).
 5 mai : Alberto Savinio,  écrivain, peintre et compositeur italien (° 25 août 1891).
 6 mai : Maria Montessori, médecin et pédagogue italienne, créatrice des « Maisons des Enfants » (° 31 août 1870).
 8 mai : William Fox, producteur américain de cinéma (° 1er janvier 1879).
@@ -603,9 +790,43 @@
 28 mai :
 Augustin Carrera, peintre franco-espagnol (° 3 avril 1878).
 Joseph Lauber, compositeur et chef d'orchestre suisse (° 27 décembre 1864).
-31 mai : Jean-Louis Paguenaud, peintre français (° 30 juin 1876).
-Juin
-1er juin : John Dewey, philosophe américain (° 20 octobre 1859).
+31 mai : Jean-Louis Paguenaud, peintre français (° 30 juin 1876).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1952</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1952</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : John Dewey, philosophe américain (° 20 octobre 1859).
 4 juin : Jazep Varonka, homme politique et journaliste russe puis soviétique (° 17 avril 1891).
 11 juin : Jules Adler, peintre  naturaliste français (° 8 juillet 1865).
 12 juin : Michael von Faulhaber, cardinal allemand, archevêque de Munich (° 5 mars 1869).
@@ -613,9 +834,43 @@
 21 juin :
 Louis Germain, peintre français (° 21 mars 1897).
 Wilfrid May, pilote d'avion durant la Première Guerre mondiale (° 20 mars 1896).
-24 juin : Lodewijk Mortelmans, compositeur belge (° 5 février 1868).
-Juillet
-1er juillet : A. S. W. Rosenbach, collectionneur et marchand américain de livres rares et de manuscrits (° 22 juillet 1876).
+24 juin : Lodewijk Mortelmans, compositeur belge (° 5 février 1868).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1952</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1952</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1er juillet : A. S. W. Rosenbach, collectionneur et marchand américain de livres rares et de manuscrits (° 22 juillet 1876).
 3 juillet : Raymond Pech, compositeur français (° 4 février 1876).
 5 juillet : Édouard Devernay, compositeur et organiste français (° 8 novembre 1889).
 6 juillet :
@@ -628,21 +883,124 @@
 René Durieux, peintre français (° 13 février 1898).
 Charles Plisnier, romancier belge (° 13 décembre 1896).
 26 juillet : Eva Perón, femme politique argentine (° 7 mai 1919).
-Août
-9 août : Olga Della-Vos-Kardovskaïa, peintre et graphiste russe puis soviétique (° 2 septembre 1875).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1952</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1952</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9 août : Olga Della-Vos-Kardovskaïa, peintre et graphiste russe puis soviétique (° 2 septembre 1875).
 12 août : Solomon Losovski, homme politique russe puis soviétique (° 16 mars 1878).
 18 août : Alberto Hurtado, prêtre Jésuite chilien, fondateur de syndicat, canonisé (° 22 janvier 1901).
 30 août : Marius Mangier, peintre français (° 8 mai 1867).
-31 août : Henri Bourassa, politicien et nationaliste canadien (° 1er septembre 1868).
-Septembre
-4 septembre : Carlo Sforza, diplomate et homme politique italien, descendant de la célèbre famille Sforza, opposant au régime fasciste (° 24 janvier 1872).
+31 août : Henri Bourassa, politicien et nationaliste canadien (° 1er septembre 1868).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1952</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1952</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4 septembre : Carlo Sforza, diplomate et homme politique italien, descendant de la célèbre famille Sforza, opposant au régime fasciste (° 24 janvier 1872).
 5 septembre : Jean Buhot, peintre, illustrateur et graveur sur bois français (° 13 août 1885).
 6 septembre : Suzanne Savale, résistante française (° 7 octobre 1904).
 17 septembre : René Fontayne, peintre et dessinateur français (° 3 janvier 1891).
 19 septembre : Amédée Féau, peintre, graveur et illustrateur français (° 11 février 1872).
-26 septembre : George Ducker, footballeur canadien (° 27 septembre 1871).
-Octobre
-6 octobre : Walter Stanley Monroe, premier ministre de Terre-Neuve.
+26 septembre : George Ducker, footballeur canadien (° 27 septembre 1871).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1952</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1952</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6 octobre : Walter Stanley Monroe, premier ministre de Terre-Neuve.
 8 octobre : Arturo Rawson, militaire et homme politique argentin (° 4 juin 1885).
 13 octobre : Gaston Baty, homme de théâtre français (° 26 mai 1885).
 16 octobre : Raoul du Gardier, peintre français (° 1er avril 1871).
@@ -657,9 +1015,43 @@
 27 octobre : John Pratt, homme politique britannique (° 9 septembre 1873).
 29 octobre : Hendrik Jan Wolter, peintre et graveur néerlandais (° 15 juillet 1873).
 30 octobre : Henriette Tirman, peintre, graveuse et illustratrice française (° 1875).
-31 octobre : Marie-Anne Camax-Zoegger, peintre française (° 7 décembre 1881).
-Novembre
-1er novembre : Bertram Bracken, acteur et producteur américain (° 1er janvier 1880).
+31 octobre : Marie-Anne Camax-Zoegger, peintre française (° 7 décembre 1881).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1952</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1952</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Bertram Bracken, acteur et producteur américain (° 1er janvier 1880).
 2 novembre : Henry Edwards, acteur, réalisateur, scénariste et producteur britannique (° 18 septembre 1882).
 4 novembre : Jules Limbeck, footballeur puis entraîneur franco-hongrois (° 13 octobre 1904).
 6 novembre : George Reed, acteur américain (° 27 novembre 1866).
@@ -678,9 +1070,43 @@
 Benedetto Croce, philosophe, historien et homme politique italien (° 25 février 1866).
 24 novembre : Camille de Morlhon, scénariste et cinéaste français de la période du cinéma muet (° 19 février 1869).
 28 novembre : Solange Christauflour, peintre française (° 1er mai 1899).
-30 novembre : Albert Guilloux, peintre et sculpteur français (° 9 octobre 1871).
-Décembre
-2 décembre : Félix Del Marle, peintre français (° 21 octobre 1889).
+30 novembre : Albert Guilloux, peintre et sculpteur français (° 9 octobre 1871).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1952</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1952</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Félix Del Marle, peintre français (° 21 octobre 1889).
 3 décembre : Rudolf Slánský, homme politique austro-hongrois puis tchécoslovaque (° 31 juillet 1901).
 4 décembre : Giuseppe Antonio Borgese, journaliste politique, critique littéraire et écrivain italien (° 12 novembre 1882).
 5 décembre : Farhat Hached, homme politique tunisien (° 2 février 1914).
